--- a/Tgs/testDate/TC001_Createlead.xlsx
+++ b/Tgs/testDate/TC001_Createlead.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,19 +39,19 @@
     <t>LastName</t>
   </si>
   <si>
-    <t>Ameex</t>
-  </si>
-  <si>
     <t>tgs</t>
   </si>
   <si>
     <t>NewCompanyName</t>
   </si>
   <si>
-    <t>Ameexusa1</t>
-  </si>
-  <si>
-    <t>Ameexusa2</t>
+    <t>all</t>
+  </si>
+  <si>
+    <t>allusa1</t>
+  </si>
+  <si>
+    <t>allusa2</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -418,18 +418,18 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -437,13 +437,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -492,7 +492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
